--- a/test_transit.xlsx
+++ b/test_transit.xlsx
@@ -495,12 +495,12 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>M210</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>20</v>
       </c>
@@ -520,12 +520,12 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>M210</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>30</v>
       </c>
@@ -545,12 +545,12 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>M210</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>25</v>
       </c>
